--- a/raw/Meanings.xlsx
+++ b/raw/Meanings.xlsx
@@ -9,18 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Meaning_ID</t>
   </si>
   <si>
     <t>Meaning_name</t>
-  </si>
-  <si>
-    <t>Meaning_number</t>
-  </si>
-  <si>
-    <t>Role_frame</t>
   </si>
   <si>
     <t>Typical_context</t>
@@ -36,13 +30,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="7">
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
     <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
     <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="172"/>
+    <numFmt formatCode="@" numFmtId="170"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -78,7 +71,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -99,13 +92,7 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
       <alignment horizontal="general" vertical="top"/>
     </xf>
   </cellXfs>
@@ -126,19 +113,13 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="6">
         <v>2</v>
       </c>
       <c r="B2" t="s" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +127,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Meanings.xlsx
+++ b/raw/Meanings.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Meaning_ID</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>ditransitive construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monotransitive construction </t>
   </si>
 </sst>
 </file>
@@ -122,14 +119,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="7">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>